--- a/web_crawling/coupang/coupang_apple.xlsx
+++ b/web_crawling/coupang/coupang_apple.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,1612 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>product_name</t>
+          <t>brand</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>color</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>storage</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>image_path</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>final_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>availability</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reviews</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1,045,000원</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>일시품절</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>핑크</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1,045,000원</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>일시품절</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>옐로</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1,045,000원</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>일시품절</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>6,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>블루</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1,045,000원</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>일시품절</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>그린</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1,050,000원</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>일시품절</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>6,665</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,550,000원</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1,442,430원</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>12,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1,550,000원</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1,373,380원</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>네츄럴티타늄</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1,550,000원</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1,442,430원</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>12,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>블루</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,550,000원</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1,373,380원</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>12,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1,700,000원</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1,539,000원</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>12,767</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>아이폰 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,900,000원</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1,729,600원</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>아이폰 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>화이트</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1,900,000원</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1,729,470원</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>아이폰 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>네츄럴티타늄</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,900,000원</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1,787,000원</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>아이폰 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>블루</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1,900,000원</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1,787,000원</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>아이폰 15 Pro Max</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>512GB</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2,200,000원</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1,991,000원</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>4,697</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>블랙</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1,350,000원</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1,214,880원</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>핑크</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,350,000원</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1,294,800원</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>옐로</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1,350,000원</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1,216,220원</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>블루</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,350,000원</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1,216,220원</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>iPhone 15</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>그린</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1,350,000원</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1,228,500원</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>미드나이트</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1,090,000원</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>998,000원</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>스타라이트</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1,090,000원</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>998,000원</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>퍼플</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1,090,000원</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>971,800원</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>미드나이트</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1,240,000원</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1,209,750원</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>스타라이트</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>256GB</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,240,000원</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>50,000원</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10,702</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>미드나이트</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1,207,000원</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2,477</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>스타라이트</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1,085,000원</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2,477</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>퍼플</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1,149,000원</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2,477</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>블루</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>128GB</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1,250,000원</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1,085,000원</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2,477</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>iPhone 14</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>레드</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>512GB</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1,700,000원</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1,464,000원</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2,477</t>
         </is>
       </c>
     </row>

--- a/web_crawling/coupang/coupang_apple.xlsx
+++ b/web_crawling/coupang/coupang_apple.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>6,667</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>6,667</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>6,667</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>6,667</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>6,665</t>
+          <t>6,667</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>12,767</t>
+          <t>12,773</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>12,767</t>
+          <t>12,773</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12,767</t>
+          <t>12,773</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12,767</t>
+          <t>12,773</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12,767</t>
+          <t>12,773</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4,697</t>
+          <t>4,700</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4,697</t>
+          <t>4,700</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4,697</t>
+          <t>4,700</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4,697</t>
+          <t>4,700</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4,697</t>
+          <t>4,700</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>998,000원</t>
+          <t>946,000원</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
